--- a/backends/upload-app/templates/Scoping Document.xlsx
+++ b/backends/upload-app/templates/Scoping Document.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
@@ -1269,6 +1269,173 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Insperity</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>This system is primarily used for HR management and payroll processing. It supports employee onboarding, I-9 verifications, benefits elections, payroll data submission, time reporting, and vacation accrual tracking.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>The client utilizes this system to manage onboarding processes, employee benefit elections, vacation time tracking, payroll processing, and manual compensation adjustments within employee profiles.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>The HR team, led by Laurie Stewart (Senior Vice President of HR), oversees system administration and user access management.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HR inputs new hire details such as salary, start date, and manager into the system, triggering onboarding notifications and granting employee access to Insperity, while elevated access or role changes require an admin-submitted access request form reviewed and provisioned by the Insperity team.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Upon termination, HR updates the employee's record with the termination date and reason. For standard employees, limited access is retained for viewing tax forms, while for elevated access users, an email is sent to Insperity to request access removal, and confirmation is documented via email.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Access is configured using a permission-based model, where specific permissions are selected through an access request form and provisioned by the Insperity team; users cannot create roles or grant access themselves.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No; Access is permission-based, and system administrators cannot create or modify roles. Changes to permissions require submitting an access request form, which is processed and provisioned by the Insperity team.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>No; management intends to implement periodic reviews of elevated user access in the future, but no formal review process for all roles and permissions currently exists.</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Yes; Users with privileged access include the HR team, Megan Hodgson, John, Laurie Stewart, and Heather Malcolm, who have admin access to manage system configurations and employee setups, with some actions requiring external intervention.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>No; there are no interactive system accounts within the system.</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Yes; but periodic user access reviews for elevated users are not currently being performed. Management plans to implement this process going forward.</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>No, the system does not have activity logging capabilities or audit trail functionality.</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>No; periodic activity reviews of user activity are not currently performed, but there are indirect controls in place such as payroll reviews.</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Users authenticate through direct login with enforced two-factor authentication for all accounts.</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>No; The client does not perform periodic reviews of the system's authentication configurations.</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Management does not have the ability to make any changes to this system. All system configurations, workflows, and code are managed entirely by the vendor.</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Access to make changes is restricted to Megan Hodgson, John, and the HR team. Megan and John have administrative access due to the current size of the team and operational needs, while the HR team has admin access to manage application configurations.</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Management does not have any separate environments for this system.</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>The client's change management process includes the following steps: Access provisioning changes are requested via an access request form specifying permissions, approved by Insperity, and deployed by Insperity support without client-side provisioning. Payroll changes are requested via email, reviewed and approved by Megan and John, and implemented by Insperity after client approval. User access termination requests are sent via email, confirmed by Insperity, and access is disabled. Payroll data is reviewed semi-monthly by Megan and John, who approve and finalize it for submission. Changes are logged in a pay change history report, and future plans include implementing a new payroll system with formalized controls.</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>No, the vendor manages all updates, patches, and bug fixes directly in the production environment. The client has no ability to make changes or updates themselves, and there is no sandbox or QA environment for testing.</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>The system enforces segregation of duties through inherent controls. Users cannot independently provision access, make configuration changes, or modify payroll data, as these actions are handled by Insperity support. Additionally, the system includes audit logging and two-factor authentication to enhance security and monitoring.</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>No periodic review of changes is performed.</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Yes, the system has automated jobs or interfaces with benefits administration sites and their website. These jobs perform functions related to benefits management and payroll journal entry preparation.</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Jobs are managed using vendor-managed tools provided by Insperity. These tools handle scheduling and monitoring of automated processes, while the organization does not currently use internal systems for these functions.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Data is stored in a vendor-managed database managed by Insperity.</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Backups are handled entirely by the vendor as part of their SaaS service.</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>No, management does not perform regular SOC report reviews.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backends/upload-app/templates/Scoping Document.xlsx
+++ b/backends/upload-app/templates/Scoping Document.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
@@ -1436,6 +1436,173 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Insperity</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>This system is primarily used for HR management and employee administration. It supports onboarding, I-9 verification, benefits election, payroll processing, time reporting, vacation accruals, and time tracking.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>The client utilizes this system to manage onboarding processes, employee benefit elections, time tracking for vacation accruals, payroll processing, and manual compensation updates within employee profiles.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>The HR team, led by Laurie Stewart (SVP of HR), manages system administration and user access.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Access provisioning is initiated when HR inputs details such as salary, start date, and manager information for new hires, triggering a notification for onboarding paperwork and granting employee access to Insperity. Elevated access requires an admin to submit a permission-based access request form to the Insperity team for provisioning, as Jade users cannot directly provision access. Role changes are not explicitly detailed but likely follow the elevated access request process.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Upon termination, HR updates the employee's termination date and reason in the system. For elevated access users, an email is sent to Insperity to request access removal, and confirmation is received via email documenting the process.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Access is configured using a permission-based model, where specific permissions are selected through an access request form and provisioned by the Insperity team.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No; Access is permission-based, and system administrators cannot create, modify, or delete roles. Changes to permissions require submission of an access request form processed by the vendor.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Yes; Users with privileged access include Megan Hodgson, John, and the HR team, who can perform unrestricted functions such as setting up new employees, though payroll processing is controlled externally by Insperity.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>No; there are no interactive system accounts within the system.</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>The credentials for all accounts are fully managed and stored by Insperity's system; there is no local storage or management of these credentials by the Jade team.</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>N/A - No Interactive System Accounts</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Yes; Management will perform periodic user access reviews. No additional detail was provided regarding the frequency or process during the walkthrough meeting.</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>The system maintains logs of pay change activities. Logs include change history details but do not explicitly confirm comprehensive admin activity logging or audit trail functionality.</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>No; periodic activity reviews of user activity are not currently performed, but there are related controls such as payroll reviews and plans to implement user access reviews in the future.</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Users authenticate through direct login with enforced two-factor authentication for all accounts.</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>No; The client does not perform periodic reviews of the systems authentication configurations.</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Management does not have the ability to make any changes to this system. All system configurations, workflows, and code are managed entirely by the vendor.</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Access to make changes is restricted to Megan Hodgson, John, and the HR team, who have administrative access to the application. Megan and John have admin access due to the current size of the team and operational needs, while the HR team has admin access for managing system configurations. All change access is granted through role-based permissions in the system.</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Management does not have any separate environments for this system.</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>The change management process varies by change type. Access changes require an access request form specifying permissions, internal approval, and provisioning by Insperity, with Jade employees restricted from direct modifications. Payroll changes are requested via email, reviewed internally by designated personnel, and processed by Insperity with draft reviews for approval. Termination of user access involves email requests to Insperity, documented approvals, and confirmation of access disablement. Periodic payroll reviews serve as indirect validation of payroll changes, and a pay change history report tracks payroll-related modifications. There is no formalized process for testing and development, but plans to implement a new payroll system suggest future formalization of change management controls.</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>No, the vendor manages all updates, patches, and bug fixes directly in the production environment. The client does not have a sandbox or QA environment, and no changes are made internally by the client's IT team.</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>No periodic review of changes is performed.</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>No automated jobs or interfaces are currently implemented for this system.</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>The tools used to run, schedule, and monitor the automated jobs were not identified, and no specific capabilities were discussed.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>The failure resolution process involves contacting Insperity's support team, waiting for them to resolve the issue, and relying on vendor-managed operations for backups and system-related issues.</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Data is stored in vendor-managed systems handled by Insperity.</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Backups are handled entirely by the vendor as part of their SaaS service.</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>N/A - All backup types and strategies are managed by the vendor as part of their SaaS service.</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>N/A - the vendor is responsible for monitoring and resolving any backup failures.</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>No, management does not perform regular SOC report reviews.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backends/upload-app/templates/Scoping Document.xlsx
+++ b/backends/upload-app/templates/Scoping Document.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
@@ -601,7 +601,173 @@
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="1"/>
+    <row r="2" customFormat="1" s="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NetSuite</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>This system is primarily used for financial management, accounting, and reporting. It supports journal entries, trial balances, financial reporting, purchase order creation, and workflows for approvals.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>The client utilizes this system to manage accounting processes, purchase order workflows, bill approvals, financial reporting, and integration with payment and budgeting tools.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>The NetSuite system administration is managed by Blackforge Consulting, led by Steve Monti and Andrew Baker.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Access provisioning is initiated by an email sent by Megan Hodgson or another authorized individual, creating a ticket in Blackforge's system. The ticket requires approval from Megan Hodgson or John, with neither approving their own changes, before Blackforge executes the requested updates to roles or permissions and documents the changes in the system.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Upon termination, access is removed immediately. NetSuite access, integrated with Azure for Single Sign-On, is manually revoked, and a screenshot of the removal is documented and shared with HR via email.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Access is configured using a role-based model, where custom roles are defined and permissions are aligned with specific functions. Global permissions are disabled, and roles were tested during user acceptance testing as part of the system rollout.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Yes; System administrators can modify roles in NetSuite, including making changes to existing roles and testing these modifications as part of the user acceptance testing process.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Yes; management performs an annual review of all roles and permissions.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Yes; Users with privileged access include Steve Monti, Andrew Baker, and Justin, who hold the Administrator role and can make system changes.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Yes; there are system roles tied to individual user accounts, but no fully non-human accounts exist currently.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Credentials for shared and integration accounts are linked to individual user accounts and are not currently stored in a formal enterprise credential management solution.</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Yes; Management performs periodic access reviews. Reviews were conducted during the initial implementation and go-live phase, with the intention to perform them quarterly moving forward.</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>The system maintains logs of administrative activities. Logs are retained indefinitely and include high-level user actions.</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>The system uses Azure SSO for authentication in the production environment, while the sandbox environment relies on independent login functionality.</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>No; The client does not perform periodic reviews of the system's authentication configurations.</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Management can perform configuration changes to adjust system settings, update workflows, modify integrations, and make limited code/script changes within the NetSuite system. These changes are managed through a ticketing system, with Blackforge handling development and deployment, and Jade's team performing testing and approvals where applicable.</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Access to make changes is restricted to a small group of administrators. Steve Monti and Andrew Baker from Blackforge Consulting have full administrator access to NetSuite as primary administrators, while Justin from Whipfli currently has administrator access for managing integration setup. All change access is granted through role-based permissions in the system.</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Management maintains separate Sandbox and Release Preview environments for implementing and testing changes.</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>The change management process varies by change type. Workflow, configuration, and script changes begin with ticket creation in Blackforge's system, followed by development in the sandbox environment, testing by Jade's team, approval by Jade's team, and deployment to production by Blackforge. Integration changes involve email requests to the integration owner, development by the owner or through NetSuite adjustments, testing in the live environment, informal approval via email, and direct deployment. Bundle audit trail changes and patches are managed by NetSuite, with Blackforge handling testing, approval, and deployment as needed. All changes follow distinct processes based on their type and risk level.</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Yes, the vendor pushes updates, patches, and bug fixes. Semiannual system upgrades are tested in a release preview environment before deployment to Production, with evidence of testing documented. Patches and bug fixes are assessed for relevance and handled on a case-by-case basis.</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>No, there is no inherent system functionality preventing users from both developing and deploying changes.</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Yes, the system has automated jobs and interfaces with Bill.com, Concur, and Adaptive Planning. These jobs perform data integration and transfer functions between systems.</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>The following tools are used: NetSuite and Adaptive. Each tool is responsible for managing integration jobs and monitoring failures, with notifications sent for task success or failure.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Job failures are handled through a defined process: detection occurs via Adaptive's run log, notifications are sent for successful or failed runs, and resolution involves identifying the issue, creating missing mappings, and manually re-running the job.</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>The system utilizes NetSuite for data storage, which is vendor managed.</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>N/A - All backup types and strategies are managed by the vendor as part of their SaaS service.</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>N/A - Backup failure resolution is managed by the vendor as part of their SaaS service.</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>No, management does not perform regular SOC report reviews.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backends/upload-app/templates/Scoping Document.xlsx
+++ b/backends/upload-app/templates/Scoping Document.xlsx
@@ -609,37 +609,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This system is primarily used for financial management, accounting, and reporting. It supports journal entries, trial balances, financial reporting, purchase order creation, and workflows for approvals.</t>
+          <t>This system is primarily used for financial management, accounting, and reporting. It supports deal entries, purchase order creation, workflow management for approvals, bill approvals, payment integration, journal entries, and financial reporting.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The client utilizes this system to manage accounting processes, purchase order workflows, bill approvals, financial reporting, and integration with payment and budgeting tools.</t>
+          <t>The client utilizes this system to manage financial processes such as journal entries, purchase orders, bill approvals, and financial reporting, while also supporting integrations with other platforms and role-based access controls.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The NetSuite system administration is managed by Blackforge Consulting, led by Steve Monti and Andrew Baker.</t>
+          <t>The NetSuite system administration is managed by Blackforge Consulting, with Steve Monti and Andrew Baker serving as primary administrators.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Access provisioning is initiated by an email sent by Megan Hodgson or another authorized individual, creating a ticket in Blackforge's system. The ticket requires approval from Megan Hodgson or John, with neither approving their own changes, before Blackforge executes the requested updates to roles or permissions and documents the changes in the system.</t>
+          <t>Access provisioning is initiated when Jade employees send an email to Blackforge's support email, which auto-generates a ticket in Blackforge's system. The request is reviewed and approved by authorized approvers, Megan Hodgson or John, with cross-approval for each other's changes. Blackforge executes the approved changes and documents them in their ticketing system.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Upon termination, access is removed immediately. NetSuite access, integrated with Azure for Single Sign-On, is manually revoked, and a screenshot of the removal is documented and shared with HR via email.</t>
+          <t>Upon termination, access is removed immediately, with NetSuite access in the production environment tied to Azure SSO and sandbox access removed separately; documentation includes a screenshot of the removal sent via email and recorded in a case shared with HR.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Access is configured using a role-based model, where custom roles are defined and permissions are aligned with specific functions. Global permissions are disabled, and roles were tested during user acceptance testing as part of the system rollout.</t>
+          <t>Access is configured using a role-based model, where custom roles with specific permissions are utilized, and global permissions are disabled in the system.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Yes; System administrators can modify roles in NetSuite, including making changes to existing roles and testing these modifications as part of the user acceptance testing process.</t>
+          <t>Yes; system administrators can modify roles in NetSuite, including making changes and performing testing as part of the user acceptance testing process.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -649,122 +649,122 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Yes; Users with privileged access include Steve Monti, Andrew Baker, and Justin, who hold the Administrator role and can make system changes.</t>
+          <t>Yes; Users with privileged access include Steve Monti, Andrew Baker, and Justin, who hold administrator roles and can modify system configurations and key settings.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Yes; there are system roles tied to individual user accounts, but no fully non-human accounts exist currently.</t>
+          <t>Yes; there are interactive system accounts used for integration purposes, including one for Concur and another currently linked to an individual user for Adaptive Planning.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Credentials for shared and integration accounts are linked to individual user accounts and are not currently stored in a formal enterprise credential management solution.</t>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>N/A - No Interactive System Accounts</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Yes; Reviews are conducted quarterly. Management performed an initial review during system implementation and confirmed that periodic reviews will continue on a quarterly basis moving forward.</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Activity logging captures administrative user actions and includes logging and reporting functionality. Logs are stored within the system for an unspecified duration.</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Yes; Management performs periodic access reviews. Reviews were conducted during the initial implementation and go-live phase, with the intention to perform them quarterly moving forward.</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>The system maintains logs of administrative activities. Logs are retained indefinitely and include high-level user actions.</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>The system uses a hybrid authentication approach where regular users authenticate through Azure SSO for the production environment, while the sandbox environment requires independent login credentials, and privileged access is restricted to specific administrators.</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>No; The client does not perform periodic reviews of the system's authentication configurations.</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Management can perform configuration changes to adjust system settings, update workflows, modify custom scripts, and manage saved searches. These changes are handled by Blackforge through a ticketing system, with development in a sandbox environment, testing by Jade's team, and deployment to production.</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Access to make changes is restricted to a small group of administrators. Steve Monti and Andrew Baker from Blackforge Consulting have elevated access to make system changes, while Justin from Whipflee has administrator access for integration setup and related changes. All change access is granted through role-based permissions in the system.</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Management maintains separate Sandbox and Release Preview environments for implementing and testing changes.</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>The client's change management process varies by change type. Workflow, configuration, and script changes begin with ticket creation in Blackforge's system, followed by development and testing in the sandbox environment. Jade's team performs testing and provides approval before Blackforge deploys changes to production. Integration changes are requested by contacting the integration owner, with changes developed and tested directly in the live environment, followed by email approval. NetSuite quarterly release changes involve Blackforge testing in a release preview environment, with deployment managed by NetSuite. All changes maintain segregation of duties, with distinct roles for development, testing, and deployment.</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Yes, the vendor pushes updates, patches, and bug fixes on a case-by-case basis when issues are identified or complaints are received. Notifications from the vendor are reviewed by Blackforge Consulting, but there is no formalized process for testing or validating these updates before deployment.</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>No, there is no inherent system functionality preventing users from both developing and deploying changes.</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Management performs periodic reviews of system changes to ensure they were appropriately requested, tested, and approved prior to deployment. The review process includes validating documentation in the ticketing system, such as change requests, test results, approvals, and deployment records, with any discrepancies addressed by Jade's team and Blackforge.</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Yes, the system has three types of automated jobs/interfaces with Bill.com, Concur, and Adaptive Planning. These jobs perform payment processing, expense management integration, and data synchronization.</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>The following tools are used: NetSuite and Adaptive. Each tool is responsible for managing saved searches and exporting data as CSV files, documenting failures, and providing notifications for task statuses.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Job failures are handled through a defined process: 1) failures are documented in Adaptive, 2) notifications are sent for both successful and failed tasks, 3) resolution involves creating missing accounts in Adaptive, remapping, and rerunning the task.</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>N/A this is a vendor managed system so the vendor manages data storage.</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Backups are handled entirely by the vendor as part of their SaaS service.</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
         <is>
           <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>The system uses Azure SSO for authentication in the production environment, while the sandbox environment relies on independent login functionality.</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>No; The client does not perform periodic reviews of the system's authentication configurations.</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Management can perform configuration changes to adjust system settings, update workflows, modify integrations, and make limited code/script changes within the NetSuite system. These changes are managed through a ticketing system, with Blackforge handling development and deployment, and Jade's team performing testing and approvals where applicable.</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Access to make changes is restricted to a small group of administrators. Steve Monti and Andrew Baker from Blackforge Consulting have full administrator access to NetSuite as primary administrators, while Justin from Whipfli currently has administrator access for managing integration setup. All change access is granted through role-based permissions in the system.</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Management maintains separate Sandbox and Release Preview environments for implementing and testing changes.</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>The change management process varies by change type. Workflow, configuration, and script changes begin with ticket creation in Blackforge's system, followed by development in the sandbox environment, testing by Jade's team, approval by Jade's team, and deployment to production by Blackforge. Integration changes involve email requests to the integration owner, development by the owner or through NetSuite adjustments, testing in the live environment, informal approval via email, and direct deployment. Bundle audit trail changes and patches are managed by NetSuite, with Blackforge handling testing, approval, and deployment as needed. All changes follow distinct processes based on their type and risk level.</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Yes, the vendor pushes updates, patches, and bug fixes. Semiannual system upgrades are tested in a release preview environment before deployment to Production, with evidence of testing documented. Patches and bug fixes are assessed for relevance and handled on a case-by-case basis.</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>No, there is no inherent system functionality preventing users from both developing and deploying changes.</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>N/A - Backup failure resolution is managed by the vendor as part of their SaaS service.</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Yes, the system has automated jobs and interfaces with Bill.com, Concur, and Adaptive Planning. These jobs perform data integration and transfer functions between systems.</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>The following tools are used: NetSuite and Adaptive. Each tool is responsible for managing integration jobs and monitoring failures, with notifications sent for task success or failure.</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>Job failures are handled through a defined process: detection occurs via Adaptive's run log, notifications are sent for successful or failed runs, and resolution involves identifying the issue, creating missing mappings, and manually re-running the job.</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>The system utilizes NetSuite for data storage, which is vendor managed.</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>N/A - All backup types and strategies are managed by the vendor as part of their SaaS service.</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>N/A - Backup failure resolution is managed by the vendor as part of their SaaS service.</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>No, management does not perform regular SOC report reviews.</t>
         </is>
       </c>
     </row>

--- a/backends/upload-app/templates/Scoping Document.xlsx
+++ b/backends/upload-app/templates/Scoping Document.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
@@ -768,6 +768,173 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Microsoft Azure</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This is a cloud-based platform primarily used for SSL authentication and access management. It supports user licensing, email services, collaboration tools, and document management functionalities.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>The client utilizes this system for SSL authentication and access management across different systems and for core Microsoft 365 services, including user licensing, collaboration through SharePoint, email via Exchange, and communication using Teams.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>The system is currently administered by Ralph Vaccaro, with oversight expected to transition to Nicole Tai (Vice President) upon her joining.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Access provisioning is initiated by HR sending a message with the new hire's details, including name, department, position, and start date, to the IT team, who manually create accounts prior to the start date. Elevated access requests require submission by the hiring manager or area lead and approval from IT leadership or another department head before access is granted.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Access is removed upon termination or role change when HR or the hiring manager sends an email specifying the change and effective date. The IT team deactivates access starting with Azure, which cascades to SSO-integrated systems, while non-SSO systems are handled independently.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Access is configured using a role-based model, where predefined roles such as regular user and elevated access (admin) are used, with elevated access granting full administrative privileges; currently, only one individual and a dormant backup account hold elevated access.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>No; Only vendor-provided roles exist, and the client cannot alter role definitions without vendor assistance.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>No; management does not perform periodic reviews of roles and permissions.</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Yes; Users with privileged access include Ralph Vaccaro with active admin access and a dormant IT Admin account used as a backup.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Yes; There is an interactive IT Admin account used as a backup, and additional generic accounts exist for specific functionalities, but they do not have elevated access.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>The credentials for the non-human IT admin account are memorized by Ralph Vaccaro, with no formal documentation or storage method.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>The password for the IT Admin account is known only to Ralph Vaccaro and stored in his memory, while other non-human accounts with standard access are configured as regular users without elevated access.</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>No; Management does not currently perform periodic access reviews. Elevated access in Azure has not been reviewed as of today.</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No, the system does not have activity logging capabilities or audit trail functionality.</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>No; periodic reviews of user activity, roles, permissions, or elevated access are not currently performed, and activity logging or tracking functionality is not actively utilized.</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>The system uses Azure SSO with MFA for all users, and privileged accounts include a backup non-human IT Admin account for emergency access.</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>No; The client does not perform periodic reviews of the systems authentication configurations.</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Management can modify permissions on certain restricted areas within Azure. No other types of changes, such as configuration, workflow, or code changes, are performed by management.</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Access to make changes is restricted to Ralph Vaccaro, who holds an admin role with elevated access, and the IT Admin Account, a dormant non-human account used as a backup. Ralph is the only individual with knowledge of the IT Admin Account password, ensuring controlled access to modify the system.</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Management does not have any separate environments for this system.</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>There is no formal change management process in place. Changes are requested verbally or via email, and the IT team makes changes directly in the production environment without formal approvals or testing. There is no documentation of changes, and no review process exists to validate changes were appropriate.</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>No, the vendor manages updates, patches, and bug fixes for the SaaS system. The organization does not perform independent testing or validation of these updates and relies entirely on the vendor for deployment and oversight.</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>No periodic review of changes is performed.</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>No automated jobs or interfaces are currently implemented for this system.</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>The automated jobs are configured using native system functionality and are not scheduled to run, as there are no automated jobs or interfaces currently in use between Azure and other systems.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>The system utilizes Microsoft Azure for data storage, which is vendor-managed.</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Backups are not currently performed independently, but implementation of Druva for 365 backups is in progress.</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>N/A - All backup types and strategies are managed by the vendor as part of their SaaS service.</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>N/A - the vendor is responsible for monitoring and resolving any backup failures.</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>No, management does not perform regular SOC report reviews.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backends/upload-app/templates/Scoping Document.xlsx
+++ b/backends/upload-app/templates/Scoping Document.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
@@ -604,62 +604,62 @@
     <row r="2" customFormat="1" s="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NetSuite</t>
+          <t>Salesforce</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This system is primarily used for financial management, accounting, and reporting. It supports deal entries, purchase order creation, workflow management for approvals, bill approvals, payment integration, journal entries, and financial reporting.</t>
+          <t>This is a cloud-based CRM platform providing sales, marketing, and service functionalities. It supports lead management, sales tracking, and integration with financial systems for data transfer.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The client utilizes this system to manage financial processes such as journal entries, purchase orders, bill approvals, and financial reporting, while also supporting integrations with other platforms and role-based access controls.</t>
+          <t>The client utilizes this system as the primary CRM solution, tracking clients, managing sales opportunities, and transferring sales data to the ERP system.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The NetSuite system administration is managed by Blackforge Consulting, with Steve Monti and Andrew Baker serving as primary administrators.</t>
+          <t>The Salesforce Administration Team, led by Vincent Washburn (Senior Salesforce Engineer).</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Access provisioning is initiated when Jade employees send an email to Blackforge's support email, which auto-generates a ticket in Blackforge's system. The request is reviewed and approved by authorized approvers, Megan Hodgson or John, with cross-approval for each other's changes. Blackforge executes the approved changes and documents them in their ticketing system.</t>
+          <t>Access provisioning is triggered by HR updates in Workday for new hires, which automatically create a ticket in ServiceNow. The ticket includes necessary role information and requires manager confirmation before access is provisioned by the IT team. Additional access requests are handled informally through direct communication with the IT team, bypassing a formal ticketing process. Role changes were not explicitly addressed.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Upon termination, access is removed immediately, with NetSuite access in the production environment tied to Azure SSO and sandbox access removed separately; documentation includes a screenshot of the removal sent via email and recorded in a case shared with HR.</t>
+          <t>When HR enters a termination date in Workday, an automated process creates a ServiceNow ticket, notifying system owners to remove access within three business days and requiring confirmation from the system owner before the ticket is closed.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Access is configured using a role-based model, where custom roles with specific permissions are utilized, and global permissions are disabled in the system.</t>
+          <t>Access is configured using a role-based model, where roles and permissions are determined by job titles in Workday and provisioned automatically through ServiceNow, with additional access manually granted by administrators upon informal requests.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Yes; system administrators can modify roles in NetSuite, including making changes and performing testing as part of the user acceptance testing process.</t>
+          <t>Yes; system administrators can modify roles, configurations, and integrations, and they also have access to the back-end code.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Yes; management performs an annual review of all roles and permissions.</t>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Yes; Users with privileged access include Steve Monti, Andrew Baker, and Justin, who hold administrator roles and can modify system configurations and key settings.</t>
+          <t>Yes; Users with privileged access include Vincent Washburn and Jeremy, who have administrative access to the Salesforce application.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Yes; there are interactive system accounts used for integration purposes, including one for Concur and another currently linked to an individual user for Adaptive Planning.</t>
+          <t>No; there are no interactive system accounts within the system.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+          <t>N/A - No Interactive System Accounts</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -669,52 +669,52 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Yes; Reviews are conducted quarterly. Management performed an initial review during system implementation and confirmed that periodic reviews will continue on a quarterly basis moving forward.</t>
+          <t>Yes; Management conducts quarterly access reviews. Compliance initiates the process, and user access is reviewed for appropriateness during each cycle.</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Activity logging captures administrative user actions and includes logging and reporting functionality. Logs are stored within the system for an unspecified duration.</t>
+          <t>The system maintains logs of user activities. Logs are retained within Salesforce and include administrative user actions.</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+          <t>No; the system logs are not reviewed unless there is an incident</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>The system uses a hybrid authentication approach where regular users authenticate through Azure SSO for the production environment, while the sandbox environment requires independent login credentials, and privileged access is restricted to specific administrators.</t>
+          <t>The system uses a hybrid authentication approach where regular users authenticate through Okta SSO, while administrators maintain direct application credentials as a backup authentication path.</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>No; The client does not perform periodic reviews of the system's authentication configurations.</t>
+          <t>Yes; The client periodically reviews authentication configurations to ensure alignment with security standards.</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Management can perform configuration changes to adjust system settings, update workflows, modify custom scripts, and manage saved searches. These changes are handled by Blackforge through a ticketing system, with development in a sandbox environment, testing by Jade's team, and deployment to production.</t>
+          <t>Management can perform configuration changes to adjust system settings, update workflows, and modify custom code within Salesforce. These changes are managed by Vincent Washburn and his colleague Jeremy, who have the ability to develop and deploy updates in a sandbox environment before moving to production.</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Access to make changes is restricted to a small group of administrators. Steve Monti and Andrew Baker from Blackforge Consulting have elevated access to make system changes, while Justin from Whipflee has administrator access for integration setup and related changes. All change access is granted through role-based permissions in the system.</t>
+          <t>The following roles have change capabilities: Senior Salesforce Engineer (administrative and configuration changes) and Salesforce Engineer (administrative and configuration changes). These roles are assigned to Vincent Washburn and his colleague Jeremy, who are the only individuals with administrative access to Salesforce and are authorized to make changes to the application.</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Management maintains separate Sandbox and Release Preview environments for implementing and testing changes.</t>
+          <t>Management maintains a separate sandbox environment for implementing and testing changes.</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>The client's change management process varies by change type. Workflow, configuration, and script changes begin with ticket creation in Blackforge's system, followed by development and testing in the sandbox environment. Jade's team performs testing and provides approval before Blackforge deploys changes to production. Integration changes are requested by contacting the integration owner, with changes developed and tested directly in the live environment, followed by email approval. NetSuite quarterly release changes involve Blackforge testing in a release preview environment, with deployment managed by NetSuite. All changes maintain segregation of duties, with distinct roles for development, testing, and deployment.</t>
+          <t>The client's change management process includes the following steps: 1) Change request submission via JIRA ticket created by Vincent or Jeremy, 2) Development in the sandbox environment by Vincent or Jeremy, 3) Testing in the sandbox environment coordinated by Jeremy with relevant stakeholders, 4) Approval captured within the JIRA ticket by the Change Advisory Board (CAB) before deployment, 5) Deployment to production performed by Vincent or Jeremy without strict segregation of duties between development and deployment.</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Yes, the vendor pushes updates, patches, and bug fixes on a case-by-case basis when issues are identified or complaints are received. Notifications from the vendor are reviewed by Blackforge Consulting, but there is no formalized process for testing or validating these updates before deployment.</t>
+          <t>Yes, the vendor manages updates, patches, and bug fixes for the SaaS system, but the specific process for deploying these changes to production was not discussed.</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -724,22 +724,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Management performs periodic reviews of system changes to ensure they were appropriately requested, tested, and approved prior to deployment. The review process includes validating documentation in the ticketing system, such as change requests, test results, approvals, and deployment records, with any discrepancies addressed by Jade's team and Blackforge.</t>
+          <t>No periodic review of changes is performed.</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Yes, the system has three types of automated jobs/interfaces with Bill.com, Concur, and Adaptive Planning. These jobs perform payment processing, expense management integration, and data synchronization.</t>
+          <t>Yes, the system has automated jobs and interfaces with NetSuite. These jobs transfer sales information for closed sales, including numbers and client data, using a tool that pulls data daily and transforms it for compatibility.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>The following tools are used: NetSuite and Adaptive. Each tool is responsible for managing saved searches and exporting data as CSV files, documenting failures, and providing notifications for task statuses.</t>
+          <t>Jobs are managed using Salesforce's native functionality, NetSuite's native functionality, and Workato. These tools provide scheduling and monitoring capabilities for automated jobs and interfaces.</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>Job failures are handled through a defined process: 1) failures are documented in Adaptive, 2) notifications are sent for both successful and failed tasks, 3) resolution involves creating missing accounts in Adaptive, remapping, and rerunning the task.</t>
+          <t>Job failures are handled through a defined process: detection is performed manually by the accounting team, notification occurs when the accounting team informs the IT team of issues, resolution involves reviewing Workato logs and rerunning the job or opening a ticket for complex problems.</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -754,184 +754,17 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+          <t>N/A - All backup types and strategies are managed by the vendor as part of their SaaS service.</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>N/A - Backup failure resolution is managed by the vendor as part of their SaaS service.</t>
+          <t>Backup failures are addressed through monitoring by the accounting team, notification to the IT team, review of Workato logs to identify errors, rerunning the job to resolve issues, and opening a ticket for complex problems with resolution logged in the ticket.</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Microsoft Azure</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>This is a cloud-based platform primarily used for SSL authentication and access management. It supports user licensing, email services, collaboration tools, and document management functionalities.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>The client utilizes this system for SSL authentication and access management across different systems and for core Microsoft 365 services, including user licensing, collaboration through SharePoint, email via Exchange, and communication using Teams.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>The system is currently administered by Ralph Vaccaro, with oversight expected to transition to Nicole Tai (Vice President) upon her joining.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Access provisioning is initiated by HR sending a message with the new hire's details, including name, department, position, and start date, to the IT team, who manually create accounts prior to the start date. Elevated access requests require submission by the hiring manager or area lead and approval from IT leadership or another department head before access is granted.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Access is removed upon termination or role change when HR or the hiring manager sends an email specifying the change and effective date. The IT team deactivates access starting with Azure, which cascades to SSO-integrated systems, while non-SSO systems are handled independently.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Access is configured using a role-based model, where predefined roles such as regular user and elevated access (admin) are used, with elevated access granting full administrative privileges; currently, only one individual and a dormant backup account hold elevated access.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>No; Only vendor-provided roles exist, and the client cannot alter role definitions without vendor assistance.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>No; management does not perform periodic reviews of roles and permissions.</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Yes; Users with privileged access include Ralph Vaccaro with active admin access and a dormant IT Admin account used as a backup.</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Yes; There is an interactive IT Admin account used as a backup, and additional generic accounts exist for specific functionalities, but they do not have elevated access.</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>The credentials for the non-human IT admin account are memorized by Ralph Vaccaro, with no formal documentation or storage method.</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>The password for the IT Admin account is known only to Ralph Vaccaro and stored in his memory, while other non-human accounts with standard access are configured as regular users without elevated access.</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>No; Management does not currently perform periodic access reviews. Elevated access in Azure has not been reviewed as of today.</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>No, the system does not have activity logging capabilities or audit trail functionality.</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>No; periodic reviews of user activity, roles, permissions, or elevated access are not currently performed, and activity logging or tracking functionality is not actively utilized.</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>The system uses Azure SSO with MFA for all users, and privileged accounts include a backup non-human IT Admin account for emergency access.</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>No; The client does not perform periodic reviews of the systems authentication configurations.</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Management can modify permissions on certain restricted areas within Azure. No other types of changes, such as configuration, workflow, or code changes, are performed by management.</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Access to make changes is restricted to Ralph Vaccaro, who holds an admin role with elevated access, and the IT Admin Account, a dormant non-human account used as a backup. Ralph is the only individual with knowledge of the IT Admin Account password, ensuring controlled access to modify the system.</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Management does not have any separate environments for this system.</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>There is no formal change management process in place. Changes are requested verbally or via email, and the IT team makes changes directly in the production environment without formal approvals or testing. There is no documentation of changes, and no review process exists to validate changes were appropriate.</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>No, the vendor manages updates, patches, and bug fixes for the SaaS system. The organization does not perform independent testing or validation of these updates and relies entirely on the vendor for deployment and oversight.</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>No periodic review of changes is performed.</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>No automated jobs or interfaces are currently implemented for this system.</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>The automated jobs are configured using native system functionality and are not scheduled to run, as there are no automated jobs or interfaces currently in use between Azure and other systems.</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>The system utilizes Microsoft Azure for data storage, which is vendor-managed.</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>Backups are not currently performed independently, but implementation of Druva for 365 backups is in progress.</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>N/A - All backup types and strategies are managed by the vendor as part of their SaaS service.</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>N/A - the vendor is responsible for monitoring and resolving any backup failures.</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>No, management does not perform regular SOC report reviews.</t>
+          <t>Yes, management performs annual SOC 1 Type 2 report reviews. The review process includes evaluating complementary user entity controls and subservice providers and is documented in the compliance team's review template.</t>
         </is>
       </c>
     </row>

--- a/backends/upload-app/templates/Scoping Document.xlsx
+++ b/backends/upload-app/templates/Scoping Document.xlsx
@@ -609,12 +609,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This is a cloud-based CRM platform providing sales, marketing, and service functionalities. It supports lead management, sales tracking, and integration with financial systems for data transfer.</t>
+          <t>This is a cloud-based CRM platform providing sales, marketing, and lead management functionalities. It supports client tracking, sales updates, and integration with financial systems.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The client utilizes this system as the primary CRM solution, tracking clients, managing sales opportunities, and transferring sales data to the ERP system.</t>
+          <t>The client utilizes this system as the primary CRM solution, tracking clients, managing sales opportunities, and integrating sales data with the ERP system for streamlined processing.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -624,52 +624,52 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Access provisioning is triggered by HR updates in Workday for new hires, which automatically create a ticket in ServiceNow. The ticket includes necessary role information and requires manager confirmation before access is provisioned by the IT team. Additional access requests are handled informally through direct communication with the IT team, bypassing a formal ticketing process. Role changes were not explicitly addressed.</t>
+          <t>Access provisioning is triggered by HR updates in Workday, which automatically create a ticket in ServiceNow containing necessary role information. The ticket is reviewed by the manager for access verification, and if aligned with the job title, the IT admin provisions access.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>When HR enters a termination date in Workday, an automated process creates a ServiceNow ticket, notifying system owners to remove access within three business days and requiring confirmation from the system owner before the ticket is closed.</t>
+          <t>When HR enters a termination date in Workday, an automated process creates a ServiceNow ticket, notifying system owners to remove access within three business days. Access removal is confirmed by the system owner before the ticket is closed.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Access is configured using a role-based model, where roles and permissions are determined by job titles in Workday and provisioned automatically through ServiceNow, with additional access manually granted by administrators upon informal requests.</t>
+          <t>Access is configured using a role-based model, where permissions are provisioned based on job titles recorded in Workday, and additional access can be manually granted by administrators upon request.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Yes; system administrators can modify roles, configurations, and integrations, and they also have access to the back-end code.</t>
+          <t>Yes; system administrators can modify roles in Salesforce, including configuration and workflow changes.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+          <t>No; management only looks at roles/permissions when an issue arises or new roles are created.</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Yes; Users with privileged access include Vincent Washburn and Jeremy, who have administrative access to the Salesforce application.</t>
+          <t>Yes; Users with privileged access include Vincent Washburn, a Senior Salesforce Engineer, and Jeremy, a Salesforce Engineer, who can make changes, provision access, and perform administrative tasks.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>No; there are no interactive system accounts within the system.</t>
+          <t>Yes; there are system accounts within Salesforce used for integrations, but they are non-interactive and no team members have access to their credentials.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>N/A - No Interactive System Accounts</t>
+          <t>The credentials for the integration account are not stored in a traditional manner; token-based authentication is used, and no one has access to the credentials once set up.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>N/A - No Interactive System Accounts</t>
+          <t>No one has access to the credentials for shared or generic accounts as these accounts use token-based authentication and do not require manual credential management.</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Yes; Management conducts quarterly access reviews. Compliance initiates the process, and user access is reviewed for appropriateness during each cycle.</t>
+          <t>Yes; Management conducts quarterly access reviews. The compliance team initiates the process, and user access is reviewed for appropriateness on a quarterly basis.</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -694,27 +694,27 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Management can perform configuration changes to adjust system settings, update workflows, and modify custom code within Salesforce. These changes are managed by Vincent Washburn and his colleague Jeremy, who have the ability to develop and deploy updates in a sandbox environment before moving to production.</t>
+          <t>Management can perform configuration changes to adjust system settings, update workflows, and modify custom code within Salesforce. These changes can include adding or removing integrations, configuring discount codes, setting up approval workflows, and making updates to Apex code.</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>The following roles have change capabilities: Senior Salesforce Engineer (administrative and configuration changes) and Salesforce Engineer (administrative and configuration changes). These roles are assigned to Vincent Washburn and his colleague Jeremy, who are the only individuals with administrative access to Salesforce and are authorized to make changes to the application.</t>
+          <t>The following roles have change capabilities: Senior Salesforce Engineer (configuration, integration, workflow, and backend code changes) and Salesforce Engineer (configuration, integration, workflow, and backend code changes). These roles are assigned to Vincent Washburn and Jeremy, who are the only individuals with administrative access to Salesforce and authorized to make changes to the application.</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Management maintains a separate sandbox environment for implementing and testing changes.</t>
+          <t>Management maintains a separate sandbox environment for implementing and testing changes prior to deployment.</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>The client's change management process includes the following steps: 1) Change request submission via JIRA ticket created by Vincent or Jeremy, 2) Development in the sandbox environment by Vincent or Jeremy, 3) Testing in the sandbox environment coordinated by Jeremy with relevant stakeholders, 4) Approval captured within the JIRA ticket by the Change Advisory Board (CAB) before deployment, 5) Deployment to production performed by Vincent or Jeremy without strict segregation of duties between development and deployment.</t>
+          <t>The client's change management process includes the following steps: Change requests are initiated verbally or via informal communication and logged in Jira, where the Change Advisory Board (CAB) is tagged for approval before development begins. Configuration and code changes are developed in the sandbox environment by Vincent or Jeremy, with testing coordinated directly with stakeholders to validate functionality. Approval is documented within the Jira ticket by the CAB, and deployment to production is performed by Vincent or Jeremy without strict segregation of duties. There is no formal process for periodic reviews of changes or enforcement of segregation between development and deployment activities.</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Yes, the vendor manages updates, patches, and bug fixes for the SaaS system, but the specific process for deploying these changes to production was not discussed.</t>
+          <t>Yes, the vendor manages updates, patches, and bug fixes for the SaaS system, but the specific process for deploying these changes to Production was not discussed.</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Yes, the system has automated jobs and interfaces with NetSuite. These jobs transfer sales information for closed sales, including numbers and client data, using a tool that pulls data daily and transforms it for compatibility.</t>
+          <t>Yes, the system has automated jobs and interfaces with NetSuite. These jobs transfer sales information for closed sales from Salesforce to NetSuite daily.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Jobs are managed using Salesforce's native functionality, NetSuite's native functionality, and Workato. These tools provide scheduling and monitoring capabilities for automated jobs and interfaces.</t>
+          <t>The following tools are used: Salesforce native functionality and Workato. Each tool is responsible for staging integration tables and pulling, transforming, and scheduling data for processing.</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>Job failures are handled through a defined process: detection is performed manually by the accounting team, notification occurs when the accounting team informs the IT team of issues, resolution involves reviewing Workato logs and rerunning the job or opening a ticket for complex problems.</t>
+          <t>Job failures are handled through a defined process: 1) detection is performed manually by the accounting team, 2) the accounting team notifies the IT team upon identifying an issue, 3) the IT team reviews logs and typically resolves the issue by rerunning the job or opening a ticket for complex cases.</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Backup failures are addressed through monitoring by the accounting team, notification to the IT team, review of Workato logs to identify errors, rerunning the job to resolve issues, and opening a ticket for complex problems with resolution logged in the ticket.</t>
+          <t>N/A - the vendor is responsible for monitoring and resolving any backup failures.</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">

--- a/backends/upload-app/templates/Scoping Document.xlsx
+++ b/backends/upload-app/templates/Scoping Document.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
@@ -768,6 +768,340 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This system is primarily used for expense reporting and travel booking. It supports corporate credit card expense submissions, out-of-pocket expense tracking, and automated credit card transaction feeds.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>The client utilizes this system to manage expense reporting processes, including submission of corporate credit card transactions and out-of-pocket expenses, processing reimbursements, and facilitating employee travel bookings.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>The system administration is managed by Megan Hodgson (System Administrator) with backup support from Ralph (IT Consultant).</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Access provisioning is handled on an ad hoc basis, where the administrator adds access in batches for new hires, and elevated access changes are approved via email by John before being provisioned, as there is no formal request, documentation process, or ticketing system in place.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Upon termination, HR notifies Megan Hodgson, who disables access immediately by marking the user as inactive and documenting the action with a date. For immediate terminations, access is also disabled through SSO, preventing login to systems like Concur.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Access is configured using a combination of role-based and permission-based models, where users are assigned base roles with predefined permissions and can be granted additional customized permissions as needed.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Yes; System administrators can modify roles and permissions, including granting admin access and adjusting user capabilities such as submitting or approving expense reports.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>No; management does not currently perform a periodic review of custom roles, and there is no explicit confirmation that such reviews are planned.</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Yes; Users with privileged access include Megan Hodgson with Travel and Expense Administrator permissions and Ralph, an IT consultant, whose specific permissions were not detailed.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>No; All user accounts are tied to individual employees; there are no generic or shared credentials that can be used interactively.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>N/A - No Interactive System Accounts</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>N/A - No Interactive System Accounts</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>No; Management has not yet performed periodic access reviews for Concur.</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>The system maintains logs of administrative activities. Logs are available through the View Audit Trails feature in the reporting section but are not currently utilized for periodic reviews of user activity.</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>No; management does not currently perform periodic reviews of user activity logs.</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Primary authentication is through Microsoft 365 SSO, while users can alternatively log in directly using their email address.</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>No; The client does not perform periodic reviews of the system's authentication configurations.</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Management can perform configuration changes to adjust system settings, update workflows such as modifying routing for expense reports, and manage approval settings. No back-end code changes are performed within the system.</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Access to make changes is restricted to the primary administrator and a backup IT consultant. The primary administrator has full access to manage the application, while the IT consultant serves as a backup with similar privileges. Access is currently limited to these two individuals to ensure proper control over system modifications.</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Management does not have any separate environments for this system.</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>There is no formal change management process in place. Changes are requested verbally or via email, and changes are made directly in the production environment without formal approvals or testing. There is no documentation of changes, and no review process exists to validate changes were appropriate.</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Yes, the system enforces segregation of duties through inherent functionality. Admin users can configure workflows and act as proxies but cannot approve or process their own transactions. Payment processing occurs outside the system, adding additional layers of control to prevent unauthorized changes from being deployed to production.</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>No periodic review of changes is performed.</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Yes, the system has an automated interface with Concur and NetSuite. This interface pulls expense report data, including receipts and expense details, into NetSuite.</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>The following tools are used: Whiplate. Each tool is responsible for managing integration between Concur and NetSuite and monitoring errors through a vendor-provided portal.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Job failures are handled through a defined process: detection occurs via a portal linked to the integration between Concur and NetSuite, there is no automated notification system, and resolution typically involves Megan Hodgson contacting the vendor representative for assistance.</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Data is stored in a vendor-managed database as part of the SaaS system.</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>This system is primarily used for expense reporting and travel booking. It supports the submission of corporate credit card expenses, out-of-pocket expenses, and integrates corporate credit card transaction feeds.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>The client utilizes this system for expense management, including the submission of expense reports with corporate credit card transactions and out-of-pocket expenses, as well as for travel booking by employees.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The system administration is overseen by Megan Hodgson (Access Administrator) and Ralph (IT Consultant).</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Access provisioning is handled on an ad hoc basis by Megan Hodgson, who reviews payroll information to determine access needs and grants access in batches for new hires, with elevated access changes approved via email by John in the absence of a ticketing system.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Upon termination, HR notifies the administrator, who immediately deactivates the user in the system and documents the action with a dated screenshot. For role changes, the process is not explicitly detailed, and access removal is managed via email and screenshots.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Access is configured using a combination of role-based and permission-based models, where users inherit base roles such as employee and can have individual permissions toggled, including administrative capabilities like system configuration and expense report approvals.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Yes; System administrators can modify user permissions, including enabling or disabling admin access or travel admin access.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>No; management plans to implement quarterly reviews of roles and permissions in the future, but no formal periodic reviews are currently performed.</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Yes; Users with privileged access include Megan Hodgson and Ralph, who have admin-level roles such as Travel and Expense Administrator, allowing system configuration and proxy capabilities.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>No; All user accounts are tied to individual employees; there are no generic or shared credentials that can be used interactively.</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>N/A - No Interactive System Accounts</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>N/A - No Interactive System Accounts</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Yes; Management plans to conduct quarterly access reviews. The process has not yet been implemented as the system has not been fully operational for a complete quarter.</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>The system maintains logs of user activities and administrative actions. Logs include audit trails and case tracking details and are accessible through the view audit trails report.</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>No; management does not currently perform periodic activity reviews of user activity, though the system includes an audit trail feature that could potentially be used for this purpose.</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Users authenticate through Microsoft 365 SSO as the primary method, with the option to log in using an email address followed by the SSO process.</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>No; The client does not perform periodic reviews of the system's authentication configurations.</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Management can perform configuration changes to adjust system settings such as account mapping, update workflows by changing managers to impact approval routing, and modify approval settings like requiring manager approval for expense reports. No back-end code changes are possible within the system.</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Access to make changes is restricted to Megan Hodgson as the primary administrator and Ralph as a backup IT consultant. Megan has administrative rights to the application, while Ralph serves as a secondary resource. Access changes above basic access are approved by John via email.</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Management does not have any separate environments for this system.</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>There is no formal change management process in place. Changes are made based on structure or requests without a defined request process, no back-end code development occurs, testing is not explicitly performed, approval involves validation against the organizational chart without a formal process, and deployment procedures are not discussed or documented.</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>No, the vendor manages updates, patches, and bug fixes directly for the SaaS system. The organization relies on the vendor's SOC report for assurance, and there is no non-production environment for testing updates before they are applied to Production.</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Yes, the system enforces segregation of duties through role-based and permission-based access controls. Admins can configure workflows but cannot approve or process their own expense reports, and payments require additional approvals outside the system. Back-end code changes are not allowed, and admin activity can be logged for oversight.</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Yes, the system has an automated interface with Concur and NetSuite. This interface pulls expense report data, including receipts and expense details, into NetSuite.</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>The following tools are used: Whiplate and a vendor-provided portal. Each tool is responsible for integration between Concur and NetSuite, and error monitoring respectively.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Job failures are handled through a defined process: 1) errors are detected and logged in a portal, 2) there is no automated notification system currently in place, 3) resolution involves manual review and communication with a representative for further action.</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Data is stored in a SaaS system managed by the vendor.</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>N/A - This is a SaaS application, all backups are managed by the vendor.</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>N/A - Backup failure resolution is managed by the vendor as part of their SaaS service.</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>No, management does not perform regular SOC report reviews.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backends/upload-app/templates/Scoping Document.xlsx
+++ b/backends/upload-app/templates/Scoping Document.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
@@ -1102,6 +1102,173 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Microsoft Azure</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>This is a cloud-based platform primarily used for SSL authentication and access management. It supports licensing for users and provides functionalities for SharePoint, Exchange email services, and Teams collaboration.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>The client utilizes this system for SSL authentication and access management across different systems. It also supports basic Microsoft 365 services, including user licensing, SharePoint, Exchange for email, and Teams.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The IT team, led by Ralph Vaccaro (System Administrator).</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Access provisioning is initiated manually by HR sending an email with the new hire's name, department, position, and start date to the IT team. Accounts are created manually by IT a few days to a week before the start date, and elevated access requests require approval from the IT or finance lead based on manager or supervisor submissions.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Access removal is initiated upon confirmation from HR or the hiring manager, detailing the termination or role change date. The IT team manually deactivates the user's access in Azure, which cascades to downstream systems integrated with SSO. Access is typically rescinded on the day of termination or role change.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Access is configured using a role-based model, where predefined roles include regular user and elevated access with complete administrative privileges, and the system utilizes default roles provided by Microsoft 365 without custom modifications.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No; Only vendor-provided roles exist, and the client cannot alter role definitions without vendor assistance.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Yes; Users with privileged access include Ralph Vaccaro with complete admin access and a dormant IT Admin account used as a backup, capable of permission changes on restricted areas.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Yes; there are interactive system and generic user accounts, including an admin account with elevated access and additional accounts configured as regular users for specific functionalities.</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>In certain cases, the credentials for the non-human IT admin account are memorized by Ralph Vaccaro, with no formal documentation.</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Ralph Vaccaro has sole access to the IT Admin account credentials, which are stored in his memory without formal logging of usage.</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>No; Management does not perform periodic access reviews for the Azure system.</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>No, the system does not have activity logging capabilities or audit trail functionality.</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>No; periodic reviews of user activity, including privileged access, are not conducted.</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>The system uses Microsoft Azure SSO with conditional access, including MFA and registered devices, while privileged accounts like IT Admin have a backup authentication path relying on memorized passwords.</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>No; The client does not perform periodic reviews of the systems authentication configurations.</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Management can perform permission changes within Azure, specifically on restricted areas. No other types of changes, such as configuration, workflow, or code changes, are allowed and are managed entirely by the vendor.</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Access to make changes is restricted to Ralph Vaccaro and a dormant IT admin account. Ralph Vaccaro is the sole active user with elevated access to modify the application, while the dormant IT admin account is maintained as a backup for administrative purposes.</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Management does not have any separate environments for this system.</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>There is no formal change management process in place. Changes are requested via email from HR or hiring managers, and IT manually implements changes directly in the production environment without formal development, testing, or documented approvals. Elevated access is approved by the IT lead, and there is no periodic review of roles or permissions. Activity logging and audit functionality are uncertain, and changes are not monitored post-deployment.</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>No, the vendor manages updates, patches, and bug fixes directly as part of their SaaS offering. The organization relies on the vendor's SoC reports for assurance and does not independently manage or test these changes.</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>No automated jobs or interfaces are currently implemented for this system.</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>No tools are currently used to manage automated jobs or interfaces. There are no scheduled jobs in place, and automation for backups may be introduced in the future using Juva.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>There is no defined process for resolving job or interface failures, as no automated jobs or interfaces exist in the current environment; failures are addressed reactively by the IT team through manual intervention based on notifications or observed issues.</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Data is stored in Microsoft Azure managed by the vendor.</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Backups are handled entirely by the vendor as part of their SaaS service.</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>The following backup types are performed: none currently. The organization is working on implementing Druva for Office 365 backups by the end of March.</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>N/A - Backup failure resolution is managed by the vendor as part of their SaaS service.</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backends/upload-app/templates/Scoping Document.xlsx
+++ b/backends/upload-app/templates/Scoping Document.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
@@ -604,117 +604,117 @@
     <row r="2" customFormat="1" s="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Salesforce</t>
+          <t>NetSuite</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This is a cloud-based CRM platform providing sales, marketing, and lead management functionalities. It supports client tracking, sales updates, and integration with financial systems.</t>
+          <t>This system is primarily used for financial management, accounting, and reporting. It supports deal entries, purchase order creation, workflow approvals, payment processing integration, journal entries, financial reporting, and general ledger management.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The client utilizes this system as the primary CRM solution, tracking clients, managing sales opportunities, and integrating sales data with the ERP system for streamlined processing.</t>
+          <t>The client utilizes this system to manage core financial processes such as accounting entries, purchase order workflows, bill approvals, and financial reporting. It also supports integrations for payment processing and management reporting.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The Salesforce Administration Team, led by Vincent Washburn (Senior Salesforce Engineer).</t>
+          <t>The NetSuite system administration is managed by Blackforge Consulting, led by Steve Monti and Andrew Baker.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Access provisioning is triggered by HR updates in Workday, which automatically create a ticket in ServiceNow containing necessary role information. The ticket is reviewed by the manager for access verification, and if aligned with the job title, the IT admin provisions access.</t>
+          <t>Access provisioning is initiated when Jade team members send an email to Blackforge Consulting's support email, prompting Blackforge to create a ticket in their ticketing system. The ticket requires approval from authorized approvers, Megan Hodgson or John, before Blackforge executes the changes and documents them in the system.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>When HR enters a termination date in Workday, an automated process creates a ServiceNow ticket, notifying system owners to remove access within three business days. Access removal is confirmed by the system owner before the ticket is closed.</t>
+          <t>Upon termination, HR initiates the removal process by notifying Blackforge, who manually removes access immediately. The removal is documented in a case and shared with HR for record-keeping.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Access is configured using a role-based model, where permissions are provisioned based on job titles recorded in Workday, and additional access can be manually granted by administrators upon request.</t>
+          <t>Access is configured using a role-based model, where custom roles are utilized and permissions are finalized during the implementation process, with global permissions disabled in the system.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Yes; system administrators can modify roles in Salesforce, including configuration and workflow changes.</t>
+          <t>Yes; System administrators can modify roles in NetSuite, and changes have been made since the initial rollout, though these have been minimal.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>No; management only looks at roles/permissions when an issue arises or new roles are created.</t>
+          <t>Yes; management performs an annual review of all roles and permissions.</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Yes; Users with privileged access include Vincent Washburn, a Senior Salesforce Engineer, and Jeremy, a Salesforce Engineer, who can make changes, provision access, and perform administrative tasks.</t>
+          <t>Yes; Users with privileged access include Steve Monti, Andrew Baker, and Justin, who hold the Administrator role in NetSuite, granting them the ability to manage system configurations and integrations.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Yes; there are system accounts within Salesforce used for integrations, but they are non-interactive and no team members have access to their credentials.</t>
+          <t>Yes; All user accounts are tied to individual employees; there are no generic or shared credentials that can be used interactively.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>The credentials for the integration account are not stored in a traditional manner; token-based authentication is used, and no one has access to the credentials once set up.</t>
+          <t>Credentials for shared and generic accounts are currently stored securely by Steve Monti until a formal enterprise credential management solution is implemented.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>No one has access to the credentials for shared or generic accounts as these accounts use token-based authentication and do not require manual credential management.</t>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Yes; Management conducts quarterly access reviews. The compliance team initiates the process, and user access is reviewed for appropriateness on a quarterly basis.</t>
+          <t>Yes; Reviews are conducted quarterly. Management performs periodic user access reviews for the NetSuite system, starting from its initial implementation, with plans to continue on an ongoing basis.</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>The system maintains logs of user activities. Logs are retained within Salesforce and include administrative user actions.</t>
+          <t>The system maintains logs of administrative activities. Logs are retained indefinitely and include detailed audit trails.</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>No; the system logs are not reviewed unless there is an incident</t>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>The system uses a hybrid authentication approach where regular users authenticate through Okta SSO, while administrators maintain direct application credentials as a backup authentication path.</t>
+          <t>Users authenticate through Azure SSO for the production environment, while the sandbox environment requires independent login credentials without SSO integration.</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Yes; The client periodically reviews authentication configurations to ensure alignment with security standards.</t>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Management can perform configuration changes to adjust system settings, update workflows, and modify custom code within Salesforce. These changes can include adding or removing integrations, configuring discount codes, setting up approval workflows, and making updates to Apex code.</t>
+          <t>Management can perform configuration changes to adjust system settings, update workflows, modify integrations, and implement custom scripts. These changes are managed through a ticketing system, developed and tested in a sandbox environment, and pushed to production following approval processes.</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>The following roles have change capabilities: Senior Salesforce Engineer (configuration, integration, workflow, and backend code changes) and Salesforce Engineer (configuration, integration, workflow, and backend code changes). These roles are assigned to Vincent Washburn and Jeremy, who are the only individuals with administrative access to Salesforce and authorized to make changes to the application.</t>
+          <t>The following individuals have change capabilities: Steve Monti and Andrew Baker from Blackforge Consulting (application changes) and Justin from Whiplate (integration setup and related changes). These individuals have administrator access to NetSuite and are responsible for their respective areas of modification.</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Management maintains a separate sandbox environment for implementing and testing changes prior to deployment.</t>
+          <t>Management maintains separate Sandbox and Release Preview environments for implementing and testing changes.</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>The client's change management process includes the following steps: Change requests are initiated verbally or via informal communication and logged in Jira, where the Change Advisory Board (CAB) is tagged for approval before development begins. Configuration and code changes are developed in the sandbox environment by Vincent or Jeremy, with testing coordinated directly with stakeholders to validate functionality. Approval is documented within the Jira ticket by the CAB, and deployment to production is performed by Vincent or Jeremy without strict segregation of duties. There is no formal process for periodic reviews of changes or enforcement of segregation between development and deployment activities.</t>
+          <t>The client's change management process includes the following steps: Change requests are submitted via NetSuite's ticketing system or email depending on the change type, development is performed in the sandbox environment or directly in the live environment by the responsible team, testing is conducted by Jade's team with relevant business users or in the live environment for integration changes, approvals are documented either through sign-off or email, and deployment is handled by the Blackforge team or integration owner following the completion of testing and approval.</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Yes, the vendor manages updates, patches, and bug fixes for the SaaS system, but the specific process for deploying these changes to Production was not discussed.</t>
+          <t>Yes, the vendor provides two major system upgrades per year along with occasional patches and bug fixes. The client receives a release preview environment for testing prior to upgrades, and testing evidence is documented. Updates are deployed to Production by the vendor without requiring explicit approval from the client, but notifications are typically sent.</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -724,99 +724,99 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>No periodic review of changes is performed.</t>
+          <t>Management performs periodic reviews of system changes to ensure they were appropriately requested, tested, and approved prior to deployment. The process involves creating a ticket in the ticketing system, testing changes in a sandbox environment, obtaining sign-off from relevant personnel, and documenting all approvals within the ticketing system.</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Yes, the system has automated jobs and interfaces with NetSuite. These jobs transfer sales information for closed sales from Salesforce to NetSuite daily.</t>
+          <t>Yes, the system has automated jobs and interfaces with Bill.com, Concur, and Adaptive Planning. These jobs perform data integration and exchange functions.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>The following tools are used: Salesforce native functionality and Workato. Each tool is responsible for staging integration tables and pulling, transforming, and scheduling data for processing.</t>
+          <t>Jobs are managed using NetSuite and Adaptive. These tools provide integration management and monitoring capabilities for scheduling and execution.</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>Job failures are handled through a defined process: 1) detection is performed manually by the accounting team, 2) the accounting team notifies the IT team upon identifying an issue, 3) the IT team reviews logs and typically resolves the issue by rerunning the job or opening a ticket for complex cases.</t>
+          <t>Job failures are handled through a defined process: detection occurs in Adaptive, notifications are sent for both successful and failed tasks, and resolution involves creating missing accounts in Adaptive, remapping, and rerunning the task.</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>N/A this is a vendor managed system so the vendor manages data storage.</t>
+          <t>Data is stored in a vendor-managed system managed by NetSuite.</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>Backups are handled entirely by the vendor as part of their SaaS service.</t>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>N/A - All backup types and strategies are managed by the vendor as part of their SaaS service.</t>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>N/A - the vendor is responsible for monitoring and resolving any backup failures.</t>
+          <t>N/A - Backup failure resolution is managed by the vendor as part of their SaaS service.</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>Yes, management performs annual SOC 1 Type 2 report reviews. The review process includes evaluating complementary user entity controls and subservice providers and is documented in the compliance team's review template.</t>
+          <t>No, management does not perform regular SOC report reviews.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Concur</t>
+          <t>Freshworks</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>This system is primarily used for expense reporting and travel booking. It supports corporate credit card expense submissions, out-of-pocket expense tracking, and automated credit card transaction feeds.</t>
+          <t>This is an IT Service Management tool used for ticket intake, change control, service requests, incidents, problem management, and procurement activities. It supports intake management for IT, security, and HR teams and is currently in phase one of its rollout.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The client utilizes this system to manage expense reporting processes, including submission of corporate credit card transactions and out-of-pocket expenses, processing reimbursements, and facilitating employee travel bookings.</t>
+          <t>The client utilizes this system to manage IT Service Management processes, including ticket intake, change control, service requests, incidents, problem management, procurement activities, and select project tasks, while also supporting intake management for HR and Security departments.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The system administration is managed by Megan Hodgson (System Administrator) with backup support from Ralph (IT Consultant).</t>
+          <t>The IT Administration Team, overseen by Andy Masterton (Head of First-Line Support).</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Access provisioning is handled on an ad hoc basis, where the administrator adds access in batches for new hires, and elevated access changes are approved via email by John before being provisioned, as there is no formal request, documentation process, or ticketing system in place.</t>
+          <t>Access provisioning is managed through Freshservice, where HR triggers an automated process for new hires via a lever email, generating tasks for agents. Additional access requests and role changes are handled manually, with approvals documented in a SharePoint spreadsheet and overseen by designated approvers.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Upon termination, HR notifies Megan Hodgson, who disables access immediately by marking the user as inactive and documenting the action with a date. For immediate terminations, access is also disabled through SSO, preventing login to systems like Concur.</t>
+          <t>Access removal for terminations and role changes is triggered by an automated process initiated by a lever email from HR, which generates tasks assigned to an agent for access revocation.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Access is configured using a combination of role-based and permission-based models, where users are assigned base roles with predefined permissions and can be granted additional customized permissions as needed.</t>
+          <t>Access is configured using a combination of group-based and individual assignments, where user portal access is provisioned via Active Directory groups, agent access is granted individually, and administrative access is restricted to specific IT personnel with elevated permissions.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Yes; System administrators can modify roles and permissions, including granting admin access and adjusting user capabilities such as submitting or approving expense reports.</t>
+          <t>Yes; System administrators can modify roles within Freshservice, but only designated administrators with elevated access are permitted to make these changes.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>No; management does not currently perform a periodic review of custom roles, and there is no explicit confirmation that such reviews are planned.</t>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Yes; Users with privileged access include Megan Hodgson with Travel and Expense Administrator permissions and Ralph, an IT consultant, whose specific permissions were not detailed.</t>
+          <t>Yes; Users with privileged access include admins who can access back-end configurations and agents who can perform activities beyond end-user capabilities, with admin access restricted to specific IT personnel approved by Danielle Corfe and Mark Bretner.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -826,67 +826,67 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>N/A - No Interactive System Accounts</t>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>N/A - No Interactive System Accounts</t>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>No; Management has not yet performed periodic access reviews for Concur.</t>
+          <t>No; there is no periodic review process currently in place. Admin access requires approval, and user access is managed via Active Directory groups, but no reviews are conducted to validate ongoing appropriateness.</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>The system maintains logs of administrative activities. Logs are available through the View Audit Trails feature in the reporting section but are not currently utilized for periodic reviews of user activity.</t>
+          <t>Activity logging captures changes related to change control, approvals, and sandbox testing and includes timestamps, documented actions, and compliance reviews. Logs are stored within the system for traceability purposes.</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>No; management does not currently perform periodic reviews of user activity logs.</t>
+          <t>No; management does not perform structured periodic reviews of user activity, and monitoring is reactive or event-driven rather than proactive.</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Primary authentication is through Microsoft 365 SSO, while users can alternatively log in directly using their email address.</t>
+          <t>Authentication is managed through Active Directory groups for requester-level access, while elevated agent access is assigned individually, and administrative access requires approval from designated approvers.</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>No; The client does not perform periodic reviews of the system's authentication configurations.</t>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Management can perform configuration changes to adjust system settings, update workflows such as modifying routing for expense reports, and manage approval settings. No back-end code changes are performed within the system.</t>
+          <t>Management can perform configuration changes to adjust system settings, update workflows, and modify code within the system. These changes are managed through Freshservice, with approvals tracked and testing conducted in a sandbox environment prior to deployment.</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Access to make changes is restricted to the primary administrator and a backup IT consultant. The primary administrator has full access to manage the application, while the IT consultant serves as a backup with similar privileges. Access is currently limited to these two individuals to ensure proper control over system modifications.</t>
+          <t>Only elevated users within the IT department are designated as administrators, with Danielle Corfe and Mark Bretner identified as approvers for granting admin access to Freshservice. Administrative access is restricted to this subset of the IT team, and not all IT personnel have the ability to make configurations or changes.</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Management does not have any separate environments for this system.</t>
+          <t>Management maintains a sandbox environment for developing and testing changes before deployment to the production environment.</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>There is no formal change management process in place. Changes are requested verbally or via email, and changes are made directly in the production environment without formal approvals or testing. There is no documentation of changes, and no review process exists to validate changes were appropriate.</t>
+          <t>The client's change management process includes the following steps: Change requests for Freshservice configuration changes are initiated via change control tickets containing impacted parties, technical steps, rollback plans, and risk assessments. Changes are developed and tested in a sandbox environment before approval by designated change approvers, with documentation maintained in the ticket. Approved changes are deployed to production following testing. Code changes are managed in GitLab, where internal teams create issues, develop changes, conduct testing, and follow approval workflows involving review and merge requests. Production deployments occur after testing and approval, adhering to the software development lifecycle methodology.</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+          <t>Yes, the vendor pushes updates, patches, and bug fixes to the SaaS system. Changes are first tested in a sandbox environment before being deployed to the production environment.</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Yes, the system enforces segregation of duties through inherent functionality. Admin users can configure workflows and act as proxies but cannot approve or process their own transactions. Payment processing occurs outside the system, adding additional layers of control to prevent unauthorized changes from being deployed to production.</t>
+          <t>The system enforces segregation of duties through role-based access controls and a sandbox environment. Elevated users with administrative roles can make changes, but deployment to production requires a manual approval process involving designated approvers.</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -896,22 +896,22 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Yes, the system has an automated interface with Concur and NetSuite. This interface pulls expense report data, including receipts and expense details, into NetSuite.</t>
+          <t>Yes, the system has two types of automated jobs/interfaces with other in-scope systems. These jobs perform termination process automation and change testing in a sandbox environment.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>The following tools are used: Whiplate. Each tool is responsible for managing integration between Concur and NetSuite and monitoring errors through a vendor-provided portal.</t>
+          <t>Jobs are managed using Freshservice, Workday, and GitLab. These tools provide capabilities for scheduling, monitoring, and managing workflows, approvals, and automation.</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Job failures are handled through a defined process: detection occurs via a portal linked to the integration between Concur and NetSuite, there is no automated notification system, and resolution typically involves Megan Hodgson contacting the vendor representative for assistance.</t>
+          <t>Job failures were not discussed in the walkthrough meeting transcript, and no defined process for detection, notification, or resolution was provided.</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Data is stored in a vendor-managed database as part of the SaaS system.</t>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+          <t>Not applicable - backup implementation is handled by the SaaS vendor.</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -931,341 +931,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>This system is primarily used for expense reporting and travel booking. It supports the submission of corporate credit card expenses, out-of-pocket expenses, and integrates corporate credit card transaction feeds.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>The client utilizes this system for expense management, including the submission of expense reports with corporate credit card transactions and out-of-pocket expenses, as well as for travel booking by employees.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>The system administration is overseen by Megan Hodgson (Access Administrator) and Ralph (IT Consultant).</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Access provisioning is handled on an ad hoc basis by Megan Hodgson, who reviews payroll information to determine access needs and grants access in batches for new hires, with elevated access changes approved via email by John in the absence of a ticketing system.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Upon termination, HR notifies the administrator, who immediately deactivates the user in the system and documents the action with a dated screenshot. For role changes, the process is not explicitly detailed, and access removal is managed via email and screenshots.</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Access is configured using a combination of role-based and permission-based models, where users inherit base roles such as employee and can have individual permissions toggled, including administrative capabilities like system configuration and expense report approvals.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Yes; System administrators can modify user permissions, including enabling or disabling admin access or travel admin access.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>No; management plans to implement quarterly reviews of roles and permissions in the future, but no formal periodic reviews are currently performed.</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Yes; Users with privileged access include Megan Hodgson and Ralph, who have admin-level roles such as Travel and Expense Administrator, allowing system configuration and proxy capabilities.</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>No; All user accounts are tied to individual employees; there are no generic or shared credentials that can be used interactively.</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>N/A - No Interactive System Accounts</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>N/A - No Interactive System Accounts</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Yes; Management plans to conduct quarterly access reviews. The process has not yet been implemented as the system has not been fully operational for a complete quarter.</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>The system maintains logs of user activities and administrative actions. Logs include audit trails and case tracking details and are accessible through the view audit trails report.</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>No; management does not currently perform periodic activity reviews of user activity, though the system includes an audit trail feature that could potentially be used for this purpose.</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Users authenticate through Microsoft 365 SSO as the primary method, with the option to log in using an email address followed by the SSO process.</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>No; The client does not perform periodic reviews of the system's authentication configurations.</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Management can perform configuration changes to adjust system settings such as account mapping, update workflows by changing managers to impact approval routing, and modify approval settings like requiring manager approval for expense reports. No back-end code changes are possible within the system.</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Access to make changes is restricted to Megan Hodgson as the primary administrator and Ralph as a backup IT consultant. Megan has administrative rights to the application, while Ralph serves as a secondary resource. Access changes above basic access are approved by John via email.</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Management does not have any separate environments for this system.</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>There is no formal change management process in place. Changes are made based on structure or requests without a defined request process, no back-end code development occurs, testing is not explicitly performed, approval involves validation against the organizational chart without a formal process, and deployment procedures are not discussed or documented.</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>No, the vendor manages updates, patches, and bug fixes directly for the SaaS system. The organization relies on the vendor's SOC report for assurance, and there is no non-production environment for testing updates before they are applied to Production.</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Yes, the system enforces segregation of duties through role-based and permission-based access controls. Admins can configure workflows but cannot approve or process their own expense reports, and payments require additional approvals outside the system. Back-end code changes are not allowed, and admin activity can be logged for oversight.</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Yes, the system has an automated interface with Concur and NetSuite. This interface pulls expense report data, including receipts and expense details, into NetSuite.</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>The following tools are used: Whiplate and a vendor-provided portal. Each tool is responsible for integration between Concur and NetSuite, and error monitoring respectively.</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>Job failures are handled through a defined process: 1) errors are detected and logged in a portal, 2) there is no automated notification system currently in place, 3) resolution involves manual review and communication with a representative for further action.</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Data is stored in a SaaS system managed by the vendor.</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>N/A - This is a SaaS application, all backups are managed by the vendor.</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>N/A - Backup failure resolution is managed by the vendor as part of their SaaS service.</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
           <t>No, management does not perform regular SOC report reviews.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Microsoft Azure</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>This is a cloud-based platform primarily used for SSL authentication and access management. It supports licensing for users and provides functionalities for SharePoint, Exchange email services, and Teams collaboration.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>The client utilizes this system for SSL authentication and access management across different systems. It also supports basic Microsoft 365 services, including user licensing, SharePoint, Exchange for email, and Teams.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>The IT team, led by Ralph Vaccaro (System Administrator).</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Access provisioning is initiated manually by HR sending an email with the new hire's name, department, position, and start date to the IT team. Accounts are created manually by IT a few days to a week before the start date, and elevated access requests require approval from the IT or finance lead based on manager or supervisor submissions.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Access removal is initiated upon confirmation from HR or the hiring manager, detailing the termination or role change date. The IT team manually deactivates the user's access in Azure, which cascades to downstream systems integrated with SSO. Access is typically rescinded on the day of termination or role change.</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Access is configured using a role-based model, where predefined roles include regular user and elevated access with complete administrative privileges, and the system utilizes default roles provided by Microsoft 365 without custom modifications.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>No; Only vendor-provided roles exist, and the client cannot alter role definitions without vendor assistance.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Yes; Users with privileged access include Ralph Vaccaro with complete admin access and a dormant IT Admin account used as a backup, capable of permission changes on restricted areas.</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Yes; there are interactive system and generic user accounts, including an admin account with elevated access and additional accounts configured as regular users for specific functionalities.</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>In certain cases, the credentials for the non-human IT admin account are memorized by Ralph Vaccaro, with no formal documentation.</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Ralph Vaccaro has sole access to the IT Admin account credentials, which are stored in his memory without formal logging of usage.</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>No; Management does not perform periodic access reviews for the Azure system.</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>No, the system does not have activity logging capabilities or audit trail functionality.</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>No; periodic reviews of user activity, including privileged access, are not conducted.</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>The system uses Microsoft Azure SSO with conditional access, including MFA and registered devices, while privileged accounts like IT Admin have a backup authentication path relying on memorized passwords.</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>No; The client does not perform periodic reviews of the systems authentication configurations.</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Management can perform permission changes within Azure, specifically on restricted areas. No other types of changes, such as configuration, workflow, or code changes, are allowed and are managed entirely by the vendor.</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Access to make changes is restricted to Ralph Vaccaro and a dormant IT admin account. Ralph Vaccaro is the sole active user with elevated access to modify the application, while the dormant IT admin account is maintained as a backup for administrative purposes.</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Management does not have any separate environments for this system.</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>There is no formal change management process in place. Changes are requested via email from HR or hiring managers, and IT manually implements changes directly in the production environment without formal development, testing, or documented approvals. Elevated access is approved by the IT lead, and there is no periodic review of roles or permissions. Activity logging and audit functionality are uncertain, and changes are not monitored post-deployment.</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>No, the vendor manages updates, patches, and bug fixes directly as part of their SaaS offering. The organization relies on the vendor's SoC reports for assurance and does not independently manage or test these changes.</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>No automated jobs or interfaces are currently implemented for this system.</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>No tools are currently used to manage automated jobs or interfaces. There are no scheduled jobs in place, and automation for backups may be introduced in the future using Juva.</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>There is no defined process for resolving job or interface failures, as no automated jobs or interfaces exist in the current environment; failures are addressed reactively by the IT team through manual intervention based on notifications or observed issues.</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Data is stored in Microsoft Azure managed by the vendor.</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>Backups are handled entirely by the vendor as part of their SaaS service.</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>The following backup types are performed: none currently. The organization is working on implementing Druva for Office 365 backups by the end of March.</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>N/A - Backup failure resolution is managed by the vendor as part of their SaaS service.</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
         </is>
       </c>
     </row>

--- a/backends/upload-app/templates/Scoping Document.xlsx
+++ b/backends/upload-app/templates/Scoping Document.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
@@ -935,6 +935,340 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Freshservice</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>This is an IT Service Management system used for ticket intake, change control, service requests, incidents, problem management, procurement activities, and intake management across IT, Security, and HR.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>The client utilizes this system as an IT Service Management tool, supporting ticket intake, change control processes, service requests, incident and problem management, procurement activities, and limited project management, while access is controlled through Active Directory groups and manual approvals.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The IT Department, with Danielle Corfe as the main approver and Mark Bretner as a secondary approver for admin access, oversees the Freshservice system.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Access provisioning is managed manually, where new hires are automatically assigned the requester role via an Active Directory group, and elevated access requests or role changes are reviewed and approved by designated approvers documented in a SharePoint spreadsheet, which is maintained by the first-line team and accessible to the IT team.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Access removal for terminations and role changes is triggered by an automated email from HR indicating a leaver. Some tasks are automatically generated, while others are assigned to agents for manual completion within the legacy system.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Access is configured using a role-based model, where users are assigned roles such as Requester, Agent, or Admin, with admin access requiring documented approval from designated approvers and tracked in a shared spreadsheet.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Yes; System administrators can modify roles, but only designated administrators within the IT department have this capability.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Yes; Users with privileged access include admins who can modify system configurations and agents who have elevated access to view all tickets and perform additional activities beyond end users.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Access to the shared admin credentials is granted to all members of the ITG SharePoint group without formal logging of usage.</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>No; there is no evidence that management conducts periodic user access reviews for this system. Access approvals are documented, and changes to approver lists are tracked, but no formal review process is in place.</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>No; There is no evidence that management performs periodic reviews of user activity logs or actions.</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Management can perform configuration changes to adjust system settings, update workflows, and modify code. Configuration changes include security groups, network configurations, and infrastructure settings. Workflow changes involve change control processes, service requests, and incident and problem management. Code changes are managed through GitLab by internal system teams following a software development lifecycle methodology, with all changes tested in a sandbox environment before deployment to production.</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Access to make changes is restricted to designated administrators within the IT department. Admin access is primarily approved by Danielle Corfe, with Mark Bretner as an alternate approver, and documented in a SharePoint spreadsheet maintained by the first-line team. Changes are tested in a sandbox environment before implementation, and the change control process involves creating tickets in Freshservice with required fields such as technical steps, rollback plans, risk assessments, and testing details, with approvals obtained and documented within the system.</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Management uses a sandbox environment for implementing and testing changes before deploying them to the production environment.</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>The client's change management process includes the following steps: 1) Change request submission via Freshservice with detailed fields such as impacted parties, technical steps, rollback plans, and risk assessments, 2) Development in the sandbox environment, 3) Testing in the sandbox environment prior to production deployment, 4) Approval documented within the change control ticket by designated change approvers, 5) Deployment to the production environment following successful testing and approval.</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>No, the vendor does not push automatic updates. All changes are managed internally through a structured change management process that includes testing in a sandbox environment, detailed documentation, risk assessments, and approvals before deployment to production.</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>No, there is no inherent system functionality preventing users from both developing and deploying changes.</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>No periodic review of changes is performed.</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Yes, the system has automated jobs and interfaces with in-scope systems. These jobs include an automated termination process triggered by HR emails and a sandbox environment for testing changes before production deployment.</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Jobs are managed using Freshservice, Workday, GitLab, and Microsoft Project. These tools provide capabilities for scheduling, monitoring, and managing automated workflows, ticketing, change control, issue tracking, and project activities.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Job failures are handled through a defined process: 1) failures are detected and logged as incidents in Freshservice, 2) agents investigate and document technical steps and approvals, 3) changes are tested in a sandbox environment before implementation.</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>N/A this information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Freshservice</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>This is an IT Service Management system primarily used for ticket intake, change control, service requests, incident management, problem management, and procurement activities. It supports ticket creation via email, portal, or direct outreach and is currently in phase one of implementation.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>The client utilizes this system as an ITSM solution for ticket intake, change control, service requests, incidents, problem management, and procurement activities, while also supporting intake management for Security and HR.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The IT department, overseen by Danielle Corfe and Mark Bretner, manages system administration and user access for Freshservice.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Access provisioning is triggered by an automated process initiated by HR emails, which generate tasks assigned to agents for completion. Elevated access requests and role changes require manual approval, primarily handled by designated approvers documented in a spreadsheet stored in SharePoint.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Access removal is triggered by an automated email from HR indicating a termination, which initiates the process. Some tasks are automated, while others generate manual tasks assigned to agents for completion.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Access is configured using a combination of group-based and individual permissions, where user portal access is provisioned through Active Directory groups, agent access is granted individually, and administrative access is restricted to approved IT personnel.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Yes; System administrators can modify roles within Freshservice, but only designated administrators within the IT department have this capability.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Yes; Users with privileged access include admins within Freshservice who can access the backend to make configurations and changes, with approvals primarily managed by Danielle Corfe and Mark Bretner.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>No; All user accounts are tied to individual employees; there are no generic or shared credentials that can be used interactively.</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Access to the shared admin credentials is limited to Danielle Corfe and Mark Bretner, with documentation maintained by the first-line team in SharePoint under Andy Masterton's oversight.</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Authentication is managed through Active Directory integration for user portal access, with role-based access controls for agents and administrators, and elevated privileges requiring manual approval by designated approvers.</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>No; The client does not perform periodic reviews of the systems authentication configurations.</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Management can perform configuration changes to adjust system settings, update workflows, and modify code within the system. These changes are initiated as service requests, converted into change controls, and processed through a defined approval workflow in Freshservice.</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Access to make changes is restricted to a subset of the IT department designated as admins. Danielle Corfe and Mark Bretner are approvers for admin access to Freshservice, and the list of system approvers is maintained in a document stored in SharePoint by the first-line team under the oversight of Andy Masterton. This document is accessible and editable by all IT members with SharePoint access.</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Management uses a sandbox environment for implementing and testing changes before deploying them to the production environment.</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>The client's change management process includes the following steps: Change requests are submitted via Freshservice, changes are developed and tested in a sandbox environment, approvals are documented within Freshservice by designated change approvers such as Danielle Corfe, and approved changes are deployed to production following testing. Code changes were not discussed in the provided information.</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Yes, the client confirmed that Freshservice has a sandbox environment where changes are tested before deployment to production. Changes are managed through a change control process, with agents creating tickets that include technical steps, rollback plans, risk assessments, and testing details. Approvals are obtained either automatically or manually within the system.</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Yes, the system enforces segregation of duties through role-based access controls, a sandbox environment for testing changes, and an approval process for deploying changes to production. Only authorized individuals can make configurations, and changes require review and approval by designated approvers before deployment.</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>No periodic review of changes is performed.</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Yes, the system has automated jobs and interfaces with other in-scope systems. These jobs include an automated termination process triggered by HR emails and a sandbox environment for testing changes before deployment.</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Jobs are managed using Freshservice, Workday, GitLab, and Microsoft Projects. These tools provide capabilities for scheduling and monitoring automated workflows and related processes.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>N/A this is a vendor managed system so the vendor manages data storage.</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Backup failures are addressed through the change management process. Resolution includes creating change requests, documenting technical steps, testing in a sandbox environment, and implementing fixes after approval.</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>N/A - This information was not discussed in the walkthrough meeting transcript.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
